--- a/Data/aearep-828/candidatepackages.xlsx
+++ b/Data/aearep-828/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,21 +22,15 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
+    <t>ivreg2</t>
+  </si>
+  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>ivreg2</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
@@ -55,54 +49,42 @@
     <t>tuples</t>
   </si>
   <si>
+    <t>pdslasso</t>
+  </si>
+  <si>
     <t>hhi</t>
   </si>
   <si>
-    <t>pdslasso</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>strgroup</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>eventstudy</t>
   </si>
   <si>
     <t>sq</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
     <t>levels</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -121,27 +103,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-828</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-828/AEA Archive/programs</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-828/AEA Archive/programs/rdc_programs</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-828/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>phys_nca_analysis_vf.do</t>
   </si>
   <si>
@@ -161,9 +131,6 @@
   </si>
   <si>
     <t>reg_firm_estab_HHI.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -207,7 +174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -215,13 +182,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -241,7 +208,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -253,7 +220,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -265,7 +232,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -277,7 +244,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -289,7 +256,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -301,7 +268,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -313,7 +280,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -325,7 +292,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -337,7 +304,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -349,7 +316,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -361,7 +328,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -373,7 +340,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -385,10 +352,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>256</v>
+        <v>449</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1484297513961792</v>
       </c>
       <c r="D15"/>
     </row>
@@ -397,10 +364,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D16"/>
     </row>
@@ -409,10 +376,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>279</v>
+        <v>501</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.16561983525753021</v>
       </c>
       <c r="D17"/>
     </row>
@@ -421,10 +388,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="C18">
-        <v>0.13362069427967072</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D18"/>
     </row>
@@ -433,10 +400,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="C19">
-        <v>0.17241379618644714</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D19"/>
     </row>
@@ -445,10 +412,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>563</v>
+        <v>706</v>
       </c>
       <c r="C20">
-        <v>0.18667109310626984</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D20"/>
     </row>
@@ -457,10 +424,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>565</v>
+        <v>955</v>
       </c>
       <c r="C21">
-        <v>0.18733422458171844</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D21"/>
     </row>
@@ -469,10 +436,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>566</v>
+        <v>998</v>
       </c>
       <c r="C22">
-        <v>0.18766577541828156</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D22"/>
     </row>
@@ -481,10 +448,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>694</v>
+        <v>1414</v>
       </c>
       <c r="C23">
-        <v>0.23010610044002533</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D23"/>
     </row>
@@ -493,10 +460,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>985</v>
+        <v>1658</v>
       </c>
       <c r="C24">
-        <v>0.32659152150154114</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D24"/>
     </row>
@@ -505,84 +472,12 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1124</v>
+        <v>2436</v>
       </c>
       <c r="C25">
-        <v>0.37267905473709106</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1133</v>
-      </c>
-      <c r="C26">
-        <v>0.37566313147544861</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1423</v>
-      </c>
-      <c r="C27">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1798</v>
-      </c>
-      <c r="C28">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1817</v>
-      </c>
-      <c r="C29">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1859</v>
-      </c>
-      <c r="C30">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>2424</v>
-      </c>
-      <c r="C31">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D31"/>
     </row>
   </sheetData>
 </worksheet>
@@ -590,95 +485,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
